--- a/config/migrate.xlsx
+++ b/config/migrate.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NOkud\Documents\dev\React\inori-track\config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ayasn\Documents\dev\react\inori-track\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{392CFD05-A7FA-49F8-B84B-FD11877F4E43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E16AD34-BFCF-41F2-AC6B-5A22635E803A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13866" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="song" sheetId="2" r:id="rId1"/>
-    <sheet name="venues" sheetId="3" r:id="rId2"/>
+    <sheet name="venues" sheetId="3" r:id="rId1"/>
+    <sheet name="song" sheetId="2" r:id="rId2"/>
     <sheet name="soungsSong" sheetId="1" r:id="rId3"/>
     <sheet name="liveName" sheetId="5" r:id="rId4"/>
   </sheets>
@@ -30,8 +30,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -39,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="877" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="152">
   <si>
     <t>id</t>
   </si>
@@ -762,8 +760,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1688,6 +1686,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{A74BC2DD-B06F-4FFA-BA0E-08C0396A9373}" name="テーブル134" displayName="テーブル134" ref="A1:C48" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
+  <autoFilter ref="A1:C48" xr:uid="{106DC42B-75CE-45B9-BCFC-4830B7644ECF}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{FFF2450C-4710-42F2-A9C0-0554C5F5539E}" name="id" dataDxfId="22">
+      <calculatedColumnFormula>ROW()-1</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" xr3:uid="{0426E4AD-09F0-4F6B-9C16-ED1CAF9DC398}" name="name" dataDxfId="21"/>
+    <tableColumn id="6" xr3:uid="{D7798297-3D9F-4BBC-B282-CCEF91EE231E}" name="liveNameId" dataDxfId="20"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2FBB2A94-C55C-4900-8178-31C30A7156C2}" name="テーブル13" displayName="テーブル13" ref="A1:C83" totalsRowShown="0" headerRowDxfId="32" dataDxfId="30" headerRowBorderDxfId="31" tableBorderDxfId="29" totalsRowBorderDxfId="28">
   <autoFilter ref="A1:C83" xr:uid="{106DC42B-75CE-45B9-BCFC-4830B7644ECF}"/>
   <tableColumns count="3">
@@ -1703,23 +1715,9 @@
 </table>
 </file>
 
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{A74BC2DD-B06F-4FFA-BA0E-08C0396A9373}" name="テーブル134" displayName="テーブル134" ref="A1:C48" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
-  <autoFilter ref="A1:C48" xr:uid="{106DC42B-75CE-45B9-BCFC-4830B7644ECF}"/>
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{FFF2450C-4710-42F2-A9C0-0554C5F5539E}" name="id" dataDxfId="22">
-      <calculatedColumnFormula>ROW()-1</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="2" xr3:uid="{0426E4AD-09F0-4F6B-9C16-ED1CAF9DC398}" name="name" dataDxfId="21"/>
-    <tableColumn id="6" xr3:uid="{D7798297-3D9F-4BBC-B282-CCEF91EE231E}" name="liveNameId" dataDxfId="20"/>
-  </tableColumns>
-  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{106DC42B-75CE-45B9-BCFC-4830B7644ECF}" name="テーブル1" displayName="テーブル1" ref="A1:G647" totalsRowShown="0" headerRowDxfId="19" dataDxfId="17" headerRowBorderDxfId="18" tableBorderDxfId="16" totalsRowBorderDxfId="15">
-  <autoFilter ref="A1:G647" xr:uid="{106DC42B-75CE-45B9-BCFC-4830B7644ECF}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{106DC42B-75CE-45B9-BCFC-4830B7644ECF}" name="テーブル1" displayName="テーブル1" ref="A1:G667" totalsRowShown="0" headerRowDxfId="19" dataDxfId="17" headerRowBorderDxfId="18" tableBorderDxfId="16" totalsRowBorderDxfId="15">
+  <autoFilter ref="A1:G667" xr:uid="{106DC42B-75CE-45B9-BCFC-4830B7644ECF}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{0EB9A524-071A-4F65-A102-0E5663A03CBE}" name="id" dataDxfId="14">
       <calculatedColumnFormula>ROW()-1</calculatedColumnFormula>
@@ -2015,1096 +2013,594 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37CA68B0-2134-406B-8CF7-034C3831A5F3}">
-  <dimension ref="A1:C83"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{051EB373-15EB-4F2C-B1BA-01C7F0ED1B62}">
+  <dimension ref="A1:C48"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="4.609375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.27734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.58203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="60.08203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.08203125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="1"/>
+    <col min="6" max="16384" width="8.9140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>115</v>
+      <c r="B1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="6">
+      <c r="A2" s="2">
         <f>ROW()-1</f>
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="10">
-        <f>テーブル13[[#This Row],[id]]</f>
-        <v>1</v>
+        <v>94</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="6">
-        <f t="shared" ref="A3:A66" si="0">ROW()-1</f>
+      <c r="A3" s="2">
+        <f t="shared" ref="A3:A41" si="0">ROW()-1</f>
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="10">
-        <f>テーブル13[[#This Row],[id]]</f>
-        <v>2</v>
+        <v>95</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="6">
+      <c r="A4" s="2">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="10">
-        <f>テーブル13[[#This Row],[id]]</f>
-        <v>3</v>
+        <v>96</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="6">
+      <c r="A5" s="2">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="10">
-        <f>テーブル13[[#This Row],[id]]</f>
-        <v>4</v>
+        <v>97</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="6">
+      <c r="A6" s="2">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="10">
-        <f>テーブル13[[#This Row],[id]]</f>
+        <v>98</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="6">
+      <c r="A7" s="2">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="10">
-        <f>テーブル13[[#This Row],[id]]</f>
+        <v>99</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="6">
+      <c r="A8" s="2">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="10">
-        <f>テーブル13[[#This Row],[id]]</f>
-        <v>7</v>
+        <v>95</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="6">
+      <c r="A9" s="2">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="10">
-        <f>テーブル13[[#This Row],[id]]</f>
-        <v>8</v>
+        <v>100</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="6">
+      <c r="A10" s="2">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="10">
-        <f>テーブル13[[#This Row],[id]]</f>
-        <v>9</v>
+        <v>101</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="6">
+      <c r="A11" s="2">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="10">
-        <f>テーブル13[[#This Row],[id]]</f>
-        <v>10</v>
+        <v>102</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="6">
+      <c r="A12" s="2">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="10">
-        <f>テーブル13[[#This Row],[id]]</f>
-        <v>11</v>
+        <v>99</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="6">
+      <c r="A13" s="2">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" s="10">
-        <f>テーブル13[[#This Row],[id]]</f>
-        <v>12</v>
+        <v>95</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="6">
+      <c r="A14" s="2">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="10">
-        <f>テーブル13[[#This Row],[id]]</f>
-        <v>13</v>
+        <v>103</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="6">
+      <c r="A15" s="2">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="10">
-        <f>テーブル13[[#This Row],[id]]</f>
-        <v>14</v>
+        <v>104</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="6">
+      <c r="A16" s="2">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" s="10">
-        <f>テーブル13[[#This Row],[id]]</f>
-        <v>15</v>
+        <v>102</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="6">
+      <c r="A17" s="2">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17" s="10">
-        <f>テーブル13[[#This Row],[id]]</f>
-        <v>16</v>
+        <v>95</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="6">
+      <c r="A18" s="2">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C18" s="10">
-        <f>テーブル13[[#This Row],[id]]</f>
-        <v>17</v>
+        <v>104</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="6">
+      <c r="A19" s="2">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C19" s="10">
-        <f>テーブル13[[#This Row],[id]]</f>
-        <v>18</v>
+        <v>103</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="6">
+      <c r="A20" s="2">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C20" s="10">
-        <f>テーブル13[[#This Row],[id]]</f>
-        <v>19</v>
+        <v>102</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="6">
+      <c r="A21" s="2">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C21" s="10">
-        <f>テーブル13[[#This Row],[id]]</f>
-        <v>20</v>
+        <v>97</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="6">
+      <c r="A22" s="2">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C22" s="10">
-        <f>テーブル13[[#This Row],[id]]</f>
-        <v>21</v>
+        <v>97</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="6">
+      <c r="A23" s="2">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C23" s="10">
-        <f>テーブル13[[#This Row],[id]]</f>
-        <v>22</v>
+        <v>104</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="6">
+      <c r="A24" s="2">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C24" s="10">
-        <f>テーブル13[[#This Row],[id]]</f>
-        <v>23</v>
+        <v>95</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="6">
+      <c r="A25" s="2">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C25" s="10">
-        <f>テーブル13[[#This Row],[id]]</f>
-        <v>24</v>
+        <v>103</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="6">
+      <c r="A26" s="2">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C26" s="10">
-        <f>テーブル13[[#This Row],[id]]</f>
-        <v>25</v>
+        <v>105</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="6">
+      <c r="A27" s="2">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C27" s="10">
-        <f>テーブル13[[#This Row],[id]]</f>
-        <v>26</v>
+        <v>106</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="6">
+      <c r="A28" s="2">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C28" s="10">
-        <f>テーブル13[[#This Row],[id]]</f>
-        <v>27</v>
+        <v>107</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="6">
+      <c r="A29" s="2">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C29" s="10">
-        <f>テーブル13[[#This Row],[id]]</f>
-        <v>28</v>
+        <v>108</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="6">
+      <c r="A30" s="2">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C30" s="10">
-        <f>テーブル13[[#This Row],[id]]</f>
-        <v>29</v>
+        <v>109</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="6">
+      <c r="A31" s="2">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C31" s="10">
-        <f>テーブル13[[#This Row],[id]]</f>
-        <v>30</v>
+        <v>110</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="6">
+      <c r="A32" s="2">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C32" s="10">
-        <f>テーブル13[[#This Row],[id]]</f>
-        <v>31</v>
+        <v>107</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="6">
+      <c r="A33" s="2">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C33" s="10">
-        <f>テーブル13[[#This Row],[id]]</f>
-        <v>32</v>
+        <v>108</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="6">
+      <c r="A34" s="2">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C34" s="10">
-        <f>テーブル13[[#This Row],[id]]</f>
-        <v>33</v>
+        <v>111</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="6">
+      <c r="A35" s="2">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C35" s="10">
-        <f>テーブル13[[#This Row],[id]]</f>
-        <v>34</v>
+        <v>112</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="6">
+      <c r="A36" s="2">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C36" s="10">
-        <f>テーブル13[[#This Row],[id]]</f>
-        <v>35</v>
+        <v>107</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="6">
+      <c r="A37" s="2">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C37" s="10">
-        <f>テーブル13[[#This Row],[id]]</f>
-        <v>36</v>
+        <v>108</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="6">
+      <c r="A38" s="2">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C38" s="10">
-        <f>テーブル13[[#This Row],[id]]</f>
-        <v>37</v>
+        <v>134</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="6">
+      <c r="A39" s="2">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C39" s="10">
-        <f>テーブル13[[#This Row],[id]]</f>
-        <v>38</v>
+        <v>135</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="6">
+      <c r="A40" s="2">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C40" s="10">
-        <f>テーブル13[[#This Row],[id]]</f>
-        <v>39</v>
+        <v>136</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="6">
+      <c r="A41" s="2">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C41" s="10">
-        <f>テーブル13[[#This Row],[id]]</f>
-        <v>40</v>
+        <v>137</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="6">
-        <f t="shared" si="0"/>
+      <c r="A42" s="9">
+        <f t="shared" ref="A42:A48" si="1">ROW()-1</f>
         <v>41</v>
       </c>
-      <c r="B42" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C42" s="10">
-        <f>テーブル13[[#This Row],[id]]</f>
-        <v>41</v>
+      <c r="B42" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="6">
-        <f t="shared" si="0"/>
+      <c r="A43" s="2">
+        <f t="shared" si="1"/>
         <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C43" s="10">
-        <f>テーブル13[[#This Row],[id]]</f>
-        <v>42</v>
+        <v>145</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="6">
-        <f t="shared" si="0"/>
+      <c r="A44" s="2">
+        <f t="shared" si="1"/>
         <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C44" s="10">
-        <f>テーブル13[[#This Row],[id]]</f>
-        <v>43</v>
+        <v>137</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="6">
-        <f t="shared" si="0"/>
+      <c r="A45" s="2">
+        <f t="shared" si="1"/>
         <v>44</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C45" s="10">
-        <f>テーブル13[[#This Row],[id]]</f>
-        <v>44</v>
+        <v>147</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="6">
-        <f t="shared" si="0"/>
+      <c r="A46" s="2">
+        <f t="shared" si="1"/>
         <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C46" s="10">
-        <f>テーブル13[[#This Row],[id]]</f>
-        <v>45</v>
+        <v>146</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="6">
-        <f t="shared" si="0"/>
+      <c r="A47" s="2">
+        <f t="shared" si="1"/>
         <v>46</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C47" s="10">
-        <f>テーブル13[[#This Row],[id]]</f>
-        <v>46</v>
+        <v>148</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48" s="6">
-        <f t="shared" si="0"/>
+      <c r="A48" s="2">
+        <f t="shared" si="1"/>
         <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C48" s="10">
-        <f>テーブル13[[#This Row],[id]]</f>
-        <v>47</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" s="6">
-        <f t="shared" si="0"/>
-        <v>48</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C49" s="10">
-        <f>テーブル13[[#This Row],[id]]</f>
-        <v>48</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" s="6">
-        <f t="shared" si="0"/>
-        <v>49</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C50" s="10">
-        <f>テーブル13[[#This Row],[id]]</f>
-        <v>49</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51" s="6">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C51" s="10">
-        <f>テーブル13[[#This Row],[id]]</f>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" s="6">
-        <f t="shared" si="0"/>
-        <v>51</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C52" s="10">
-        <f>テーブル13[[#This Row],[id]]</f>
-        <v>51</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53" s="6">
-        <f t="shared" si="0"/>
-        <v>52</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C53" s="10">
-        <f>テーブル13[[#This Row],[id]]</f>
-        <v>52</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54" s="6">
-        <f t="shared" si="0"/>
-        <v>53</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C54" s="10">
-        <f>テーブル13[[#This Row],[id]]</f>
-        <v>53</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="A55" s="6">
-        <f t="shared" si="0"/>
-        <v>54</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C55" s="10">
-        <f>テーブル13[[#This Row],[id]]</f>
-        <v>54</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="A56" s="6">
-        <f t="shared" si="0"/>
-        <v>55</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C56" s="10">
-        <f>テーブル13[[#This Row],[id]]</f>
-        <v>55</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="A57" s="6">
-        <f t="shared" si="0"/>
-        <v>56</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C57" s="10">
-        <f>テーブル13[[#This Row],[id]]</f>
-        <v>56</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="A58" s="6">
-        <f t="shared" si="0"/>
-        <v>57</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C58" s="10">
-        <f>テーブル13[[#This Row],[id]]</f>
-        <v>57</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
-      <c r="A59" s="6">
-        <f t="shared" si="0"/>
-        <v>58</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C59" s="10">
-        <f>テーブル13[[#This Row],[id]]</f>
-        <v>58</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
-      <c r="A60" s="6">
-        <f t="shared" si="0"/>
-        <v>59</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C60" s="10">
-        <f>テーブル13[[#This Row],[id]]</f>
-        <v>59</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
-      <c r="A61" s="6">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C61" s="10">
-        <f>テーブル13[[#This Row],[id]]</f>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
-      <c r="A62" s="6">
-        <f t="shared" si="0"/>
-        <v>61</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C62" s="10">
-        <f>テーブル13[[#This Row],[id]]</f>
-        <v>61</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
-      <c r="A63" s="6">
-        <f t="shared" si="0"/>
-        <v>62</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C63" s="10">
-        <f>テーブル13[[#This Row],[id]]</f>
-        <v>62</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
-      <c r="A64" s="6">
-        <f t="shared" si="0"/>
-        <v>63</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C64" s="10">
-        <f>テーブル13[[#This Row],[id]]</f>
-        <v>63</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
-      <c r="A65" s="6">
-        <f t="shared" si="0"/>
-        <v>64</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C65" s="10">
-        <f>テーブル13[[#This Row],[id]]</f>
-        <v>64</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
-      <c r="A66" s="6">
-        <f t="shared" si="0"/>
-        <v>65</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C66" s="10">
-        <f>テーブル13[[#This Row],[id]]</f>
-        <v>65</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
-      <c r="A67" s="6">
-        <f t="shared" ref="A67:A78" si="1">ROW()-1</f>
-        <v>66</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C67" s="10">
-        <f>テーブル13[[#This Row],[id]]</f>
-        <v>66</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
-      <c r="A68" s="6">
-        <f t="shared" si="1"/>
-        <v>67</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C68" s="10">
-        <f>テーブル13[[#This Row],[id]]</f>
-        <v>67</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
-      <c r="A69" s="6">
-        <f t="shared" si="1"/>
-        <v>68</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C69" s="10">
-        <f>テーブル13[[#This Row],[id]]</f>
-        <v>68</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
-      <c r="A70" s="6">
-        <f t="shared" si="1"/>
-        <v>69</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C70" s="10">
-        <f>テーブル13[[#This Row],[id]]</f>
-        <v>69</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
-      <c r="A71" s="6">
-        <f t="shared" si="1"/>
-        <v>70</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C71" s="10">
-        <f>テーブル13[[#This Row],[id]]</f>
-        <v>70</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
-      <c r="A72" s="6">
-        <f t="shared" si="1"/>
-        <v>71</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C72" s="10">
-        <f>テーブル13[[#This Row],[id]]</f>
-        <v>71</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
-      <c r="A73" s="6">
-        <f t="shared" si="1"/>
-        <v>72</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C73" s="10">
-        <f>テーブル13[[#This Row],[id]]</f>
-        <v>72</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
-      <c r="A74" s="6">
-        <f t="shared" si="1"/>
-        <v>73</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C74" s="10">
-        <f>テーブル13[[#This Row],[id]]</f>
-        <v>73</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
-      <c r="A75" s="6">
-        <f t="shared" si="1"/>
-        <v>74</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C75" s="10">
-        <f>テーブル13[[#This Row],[id]]</f>
-        <v>74</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
-      <c r="A76" s="6">
-        <f t="shared" si="1"/>
-        <v>75</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C76" s="10">
-        <f>テーブル13[[#This Row],[id]]</f>
-        <v>75</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
-      <c r="A77" s="6">
-        <f t="shared" si="1"/>
-        <v>76</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C77" s="10">
-        <f>テーブル13[[#This Row],[id]]</f>
-        <v>76</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
-      <c r="A78" s="6">
-        <f t="shared" si="1"/>
-        <v>77</v>
-      </c>
-      <c r="B78" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="C78" s="10">
-        <f>テーブル13[[#This Row],[id]]</f>
-        <v>77</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
-      <c r="A79" s="8">
-        <f>ROW()-1</f>
-        <v>78</v>
-      </c>
-      <c r="B79" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="C79" s="10">
-        <f>テーブル13[[#This Row],[id]]</f>
-        <v>78</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
-      <c r="A80" s="8">
-        <f>ROW()-1</f>
-        <v>79</v>
-      </c>
-      <c r="B80" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="C80" s="10">
-        <f>テーブル13[[#This Row],[id]]</f>
-        <v>79</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
-      <c r="A81" s="8">
-        <f>ROW()-1</f>
-        <v>80</v>
-      </c>
-      <c r="B81" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="C81" s="10">
-        <f>テーブル13[[#This Row],[id]]</f>
-        <v>80</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
-      <c r="A82" s="8">
-        <f>ROW()-1</f>
-        <v>81</v>
-      </c>
-      <c r="B82" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="C82" s="10">
-        <f>テーブル13[[#This Row],[id]]</f>
-        <v>81</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
-      <c r="A83" s="8">
-        <f>ROW()-1</f>
-        <v>82</v>
-      </c>
-      <c r="B83" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="C83" s="10">
-        <f>テーブル13[[#This Row],[id]]</f>
-        <v>82</v>
+        <v>149</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -3117,594 +2613,1096 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{051EB373-15EB-4F2C-B1BA-01C7F0ED1B62}">
-  <dimension ref="A1:C48"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37CA68B0-2134-406B-8CF7-034C3831A5F3}">
+  <dimension ref="A1:C83"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A69" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="4.609375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="60.0546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.58203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.08203125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="1"/>
+    <col min="6" max="16384" width="8.9140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
+      <c r="B1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="2">
+      <c r="A2" s="6">
         <f>ROW()-1</f>
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>4</v>
+        <v>16</v>
+      </c>
+      <c r="C2" s="10">
+        <f>テーブル13[[#This Row],[id]]</f>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="2">
-        <f t="shared" ref="A3:A41" si="0">ROW()-1</f>
+      <c r="A3" s="6">
+        <f t="shared" ref="A3:A66" si="0">ROW()-1</f>
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>5</v>
+        <v>17</v>
+      </c>
+      <c r="C3" s="10">
+        <f>テーブル13[[#This Row],[id]]</f>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="2">
+      <c r="A4" s="6">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>5</v>
+        <v>18</v>
+      </c>
+      <c r="C4" s="10">
+        <f>テーブル13[[#This Row],[id]]</f>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="2">
+      <c r="A5" s="6">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>5</v>
+        <v>19</v>
+      </c>
+      <c r="C5" s="10">
+        <f>テーブル13[[#This Row],[id]]</f>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="2">
+      <c r="A6" s="6">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="10">
+        <f>テーブル13[[#This Row],[id]]</f>
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="2">
+      <c r="A7" s="6">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="10">
+        <f>テーブル13[[#This Row],[id]]</f>
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="2">
+      <c r="A8" s="6">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>6</v>
+        <v>22</v>
+      </c>
+      <c r="C8" s="10">
+        <f>テーブル13[[#This Row],[id]]</f>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="2">
+      <c r="A9" s="6">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>6</v>
+        <v>23</v>
+      </c>
+      <c r="C9" s="10">
+        <f>テーブル13[[#This Row],[id]]</f>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="2">
+      <c r="A10" s="6">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>6</v>
+        <v>24</v>
+      </c>
+      <c r="C10" s="10">
+        <f>テーブル13[[#This Row],[id]]</f>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="2">
+      <c r="A11" s="6">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>7</v>
+        <v>25</v>
+      </c>
+      <c r="C11" s="10">
+        <f>テーブル13[[#This Row],[id]]</f>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="2">
+      <c r="A12" s="6">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>8</v>
+        <v>26</v>
+      </c>
+      <c r="C12" s="10">
+        <f>テーブル13[[#This Row],[id]]</f>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="2">
+      <c r="A13" s="6">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>8</v>
+        <v>27</v>
+      </c>
+      <c r="C13" s="10">
+        <f>テーブル13[[#This Row],[id]]</f>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="2">
+      <c r="A14" s="6">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>8</v>
+        <v>28</v>
+      </c>
+      <c r="C14" s="10">
+        <f>テーブル13[[#This Row],[id]]</f>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="2">
+      <c r="A15" s="6">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>8</v>
+        <v>29</v>
+      </c>
+      <c r="C15" s="10">
+        <f>テーブル13[[#This Row],[id]]</f>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="2">
+      <c r="A16" s="6">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>8</v>
+        <v>30</v>
+      </c>
+      <c r="C16" s="10">
+        <f>テーブル13[[#This Row],[id]]</f>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="2">
+      <c r="A17" s="6">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
+      </c>
+      <c r="C17" s="10">
+        <f>テーブル13[[#This Row],[id]]</f>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="2">
+      <c r="A18" s="6">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>9</v>
+        <v>32</v>
+      </c>
+      <c r="C18" s="10">
+        <f>テーブル13[[#This Row],[id]]</f>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="2">
+      <c r="A19" s="6">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
+      </c>
+      <c r="C19" s="10">
+        <f>テーブル13[[#This Row],[id]]</f>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="2">
+      <c r="A20" s="6">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>9</v>
+        <v>34</v>
+      </c>
+      <c r="C20" s="10">
+        <f>テーブル13[[#This Row],[id]]</f>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="2">
+      <c r="A21" s="6">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>9</v>
+        <v>35</v>
+      </c>
+      <c r="C21" s="10">
+        <f>テーブル13[[#This Row],[id]]</f>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="2">
+      <c r="A22" s="6">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>10</v>
+        <v>36</v>
+      </c>
+      <c r="C22" s="10">
+        <f>テーブル13[[#This Row],[id]]</f>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="2">
+      <c r="A23" s="6">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>10</v>
+        <v>37</v>
+      </c>
+      <c r="C23" s="10">
+        <f>テーブル13[[#This Row],[id]]</f>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="2">
+      <c r="A24" s="6">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>10</v>
+        <v>38</v>
+      </c>
+      <c r="C24" s="10">
+        <f>テーブル13[[#This Row],[id]]</f>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="2">
+      <c r="A25" s="6">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>10</v>
+        <v>39</v>
+      </c>
+      <c r="C25" s="10">
+        <f>テーブル13[[#This Row],[id]]</f>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="2">
+      <c r="A26" s="6">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>10</v>
+        <v>40</v>
+      </c>
+      <c r="C26" s="10">
+        <f>テーブル13[[#This Row],[id]]</f>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="2">
+      <c r="A27" s="6">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>10</v>
+        <v>41</v>
+      </c>
+      <c r="C27" s="10">
+        <f>テーブル13[[#This Row],[id]]</f>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="2">
+      <c r="A28" s="6">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>11</v>
+        <v>42</v>
+      </c>
+      <c r="C28" s="10">
+        <f>テーブル13[[#This Row],[id]]</f>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="2">
+      <c r="A29" s="6">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>11</v>
+        <v>43</v>
+      </c>
+      <c r="C29" s="10">
+        <f>テーブル13[[#This Row],[id]]</f>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="2">
+      <c r="A30" s="6">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>12</v>
+        <v>44</v>
+      </c>
+      <c r="C30" s="10">
+        <f>テーブル13[[#This Row],[id]]</f>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="2">
+      <c r="A31" s="6">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>12</v>
+        <v>45</v>
+      </c>
+      <c r="C31" s="10">
+        <f>テーブル13[[#This Row],[id]]</f>
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="2">
+      <c r="A32" s="6">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>12</v>
+        <v>46</v>
+      </c>
+      <c r="C32" s="10">
+        <f>テーブル13[[#This Row],[id]]</f>
+        <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="2">
+      <c r="A33" s="6">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>12</v>
+        <v>47</v>
+      </c>
+      <c r="C33" s="10">
+        <f>テーブル13[[#This Row],[id]]</f>
+        <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="2">
+      <c r="A34" s="6">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>13</v>
+        <v>48</v>
+      </c>
+      <c r="C34" s="10">
+        <f>テーブル13[[#This Row],[id]]</f>
+        <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="2">
+      <c r="A35" s="6">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>13</v>
+        <v>49</v>
+      </c>
+      <c r="C35" s="10">
+        <f>テーブル13[[#This Row],[id]]</f>
+        <v>34</v>
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="2">
+      <c r="A36" s="6">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>14</v>
+        <v>50</v>
+      </c>
+      <c r="C36" s="10">
+        <f>テーブル13[[#This Row],[id]]</f>
+        <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="2">
+      <c r="A37" s="6">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>14</v>
+        <v>51</v>
+      </c>
+      <c r="C37" s="10">
+        <f>テーブル13[[#This Row],[id]]</f>
+        <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="2">
+      <c r="A38" s="6">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>131</v>
+        <v>52</v>
+      </c>
+      <c r="C38" s="10">
+        <f>テーブル13[[#This Row],[id]]</f>
+        <v>37</v>
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="2">
+      <c r="A39" s="6">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>131</v>
+        <v>53</v>
+      </c>
+      <c r="C39" s="10">
+        <f>テーブル13[[#This Row],[id]]</f>
+        <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="2">
+      <c r="A40" s="6">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>131</v>
+        <v>54</v>
+      </c>
+      <c r="C40" s="10">
+        <f>テーブル13[[#This Row],[id]]</f>
+        <v>39</v>
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="2">
+      <c r="A41" s="6">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>131</v>
+        <v>55</v>
+      </c>
+      <c r="C41" s="10">
+        <f>テーブル13[[#This Row],[id]]</f>
+        <v>40</v>
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="9">
+      <c r="A42" s="6">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C42" s="10">
+        <f>テーブル13[[#This Row],[id]]</f>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="6">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C43" s="10">
+        <f>テーブル13[[#This Row],[id]]</f>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="6">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C44" s="10">
+        <f>テーブル13[[#This Row],[id]]</f>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="6">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C45" s="10">
+        <f>テーブル13[[#This Row],[id]]</f>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="6">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C46" s="10">
+        <f>テーブル13[[#This Row],[id]]</f>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="6">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C47" s="10">
+        <f>テーブル13[[#This Row],[id]]</f>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="6">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C48" s="10">
+        <f>テーブル13[[#This Row],[id]]</f>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="6">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C49" s="10">
+        <f>テーブル13[[#This Row],[id]]</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="6">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C50" s="10">
+        <f>テーブル13[[#This Row],[id]]</f>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="6">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C51" s="10">
+        <f>テーブル13[[#This Row],[id]]</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="6">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C52" s="10">
+        <f>テーブル13[[#This Row],[id]]</f>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="6">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C53" s="10">
+        <f>テーブル13[[#This Row],[id]]</f>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="6">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C54" s="10">
+        <f>テーブル13[[#This Row],[id]]</f>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="6">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C55" s="10">
+        <f>テーブル13[[#This Row],[id]]</f>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="6">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C56" s="10">
+        <f>テーブル13[[#This Row],[id]]</f>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="6">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C57" s="10">
+        <f>テーブル13[[#This Row],[id]]</f>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="6">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C58" s="10">
+        <f>テーブル13[[#This Row],[id]]</f>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="6">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C59" s="10">
+        <f>テーブル13[[#This Row],[id]]</f>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="6">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C60" s="10">
+        <f>テーブル13[[#This Row],[id]]</f>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="6">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C61" s="10">
+        <f>テーブル13[[#This Row],[id]]</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="6">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C62" s="10">
+        <f>テーブル13[[#This Row],[id]]</f>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="6">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C63" s="10">
+        <f>テーブル13[[#This Row],[id]]</f>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="6">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C64" s="10">
+        <f>テーブル13[[#This Row],[id]]</f>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="6">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C65" s="10">
+        <f>テーブル13[[#This Row],[id]]</f>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="6">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C66" s="10">
+        <f>テーブル13[[#This Row],[id]]</f>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="6">
+        <f t="shared" ref="A67:A78" si="1">ROW()-1</f>
+        <v>66</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C67" s="10">
+        <f>テーブル13[[#This Row],[id]]</f>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="6">
+        <f t="shared" si="1"/>
+        <v>67</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C68" s="10">
+        <f>テーブル13[[#This Row],[id]]</f>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="6">
+        <f t="shared" si="1"/>
+        <v>68</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C69" s="10">
+        <f>テーブル13[[#This Row],[id]]</f>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" s="6">
+        <f t="shared" si="1"/>
+        <v>69</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C70" s="10">
+        <f>テーブル13[[#This Row],[id]]</f>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" s="6">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C71" s="10">
+        <f>テーブル13[[#This Row],[id]]</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" s="6">
+        <f t="shared" si="1"/>
+        <v>71</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C72" s="10">
+        <f>テーブル13[[#This Row],[id]]</f>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="6">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C73" s="10">
+        <f>テーブル13[[#This Row],[id]]</f>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="6">
+        <f t="shared" si="1"/>
+        <v>73</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C74" s="10">
+        <f>テーブル13[[#This Row],[id]]</f>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" s="6">
+        <f t="shared" si="1"/>
+        <v>74</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C75" s="10">
+        <f>テーブル13[[#This Row],[id]]</f>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" s="6">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C76" s="10">
+        <f>テーブル13[[#This Row],[id]]</f>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" s="6">
+        <f t="shared" si="1"/>
+        <v>76</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C77" s="10">
+        <f>テーブル13[[#This Row],[id]]</f>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" s="6">
+        <f t="shared" si="1"/>
+        <v>77</v>
+      </c>
+      <c r="B78" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C78" s="10">
+        <f>テーブル13[[#This Row],[id]]</f>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" s="8">
         <f>ROW()-1</f>
-        <v>41</v>
-      </c>
-      <c r="B42" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="C42" s="9" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" s="2">
+        <v>78</v>
+      </c>
+      <c r="B79" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="C79" s="10">
+        <f>テーブル13[[#This Row],[id]]</f>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" s="8">
         <f>ROW()-1</f>
-        <v>42</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="C43" s="9" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" s="2">
+        <v>79</v>
+      </c>
+      <c r="B80" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="C80" s="10">
+        <f>テーブル13[[#This Row],[id]]</f>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" s="8">
         <f>ROW()-1</f>
-        <v>43</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C44" s="9" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" s="2">
+        <v>80</v>
+      </c>
+      <c r="B81" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="C81" s="10">
+        <f>テーブル13[[#This Row],[id]]</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" s="8">
         <f>ROW()-1</f>
-        <v>44</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="C45" s="9" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" s="2">
+        <v>81</v>
+      </c>
+      <c r="B82" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="C82" s="10">
+        <f>テーブル13[[#This Row],[id]]</f>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" s="8">
         <f>ROW()-1</f>
-        <v>45</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="C46" s="9" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" s="2">
-        <f>ROW()-1</f>
-        <v>46</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="C47" s="9" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" s="2">
-        <f>ROW()-1</f>
-        <v>47</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="C48" s="9" t="s">
-        <v>150</v>
+        <v>82</v>
+      </c>
+      <c r="B83" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="C83" s="10">
+        <f>テーブル13[[#This Row],[id]]</f>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -3718,22 +3716,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G647"/>
+  <dimension ref="A1:G667"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A627" workbookViewId="0">
-      <selection activeCell="B647" sqref="B647"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="4.609375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="60.0546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.27734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.58203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="60.08203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.08203125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.0546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="1"/>
+    <col min="6" max="6" width="25.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.08203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.9140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -21182,19 +21178,563 @@
       <c r="B647" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="C647" s="9"/>
-      <c r="D647" s="9"/>
-      <c r="E647" s="11" t="e">
-        <f>VLOOKUP(テーブル1[[#This Row],[venueId]],テーブル134[],2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F647" s="12" t="e">
-        <f>VLOOKUP(テーブル1[[#This Row],[songId]],テーブル13[],2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G647" s="11" t="e">
-        <f>VLOOKUP(テーブル1[[#This Row],[曲名]],テーブル13[[title]:[id逆引き]],2,FALSE)</f>
-        <v>#N/A</v>
+      <c r="C647" s="9">
+        <v>41</v>
+      </c>
+      <c r="D647" s="9">
+        <v>15</v>
+      </c>
+      <c r="E647" s="9" t="str">
+        <f>VLOOKUP(テーブル1[[#This Row],[venueId]],テーブル134[],2,FALSE)</f>
+        <v>兵庫</v>
+      </c>
+      <c r="F647" s="10" t="str">
+        <f>VLOOKUP(テーブル1[[#This Row],[songId]],テーブル13[],2,FALSE)</f>
+        <v>We Are The Music</v>
+      </c>
+      <c r="G647" s="9">
+        <f>VLOOKUP(テーブル1[[#This Row],[曲名]],テーブル13[[title]:[id逆引き]],2,FALSE)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="648" spans="1:7">
+      <c r="A648" s="6">
+        <f>ROW()-1</f>
+        <v>647</v>
+      </c>
+      <c r="B648" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C648" s="9">
+        <v>41</v>
+      </c>
+      <c r="D648" s="2">
+        <v>36</v>
+      </c>
+      <c r="E648" s="11" t="str">
+        <f>VLOOKUP(テーブル1[[#This Row],[venueId]],テーブル134[],2,FALSE)</f>
+        <v>兵庫</v>
+      </c>
+      <c r="F648" s="12" t="str">
+        <f>VLOOKUP(テーブル1[[#This Row],[songId]],テーブル13[],2,FALSE)</f>
+        <v>Sweet Melody</v>
+      </c>
+      <c r="G648" s="11">
+        <f>VLOOKUP(テーブル1[[#This Row],[曲名]],テーブル13[[title]:[id逆引き]],2,FALSE)</f>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="649" spans="1:7">
+      <c r="A649" s="6">
+        <f t="shared" ref="A649:A664" si="12">ROW()-1</f>
+        <v>648</v>
+      </c>
+      <c r="B649" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C649" s="9">
+        <v>41</v>
+      </c>
+      <c r="D649" s="2">
+        <v>72</v>
+      </c>
+      <c r="E649" s="11" t="str">
+        <f>VLOOKUP(テーブル1[[#This Row],[venueId]],テーブル134[],2,FALSE)</f>
+        <v>兵庫</v>
+      </c>
+      <c r="F649" s="12" t="str">
+        <f>VLOOKUP(テーブル1[[#This Row],[songId]],テーブル13[],2,FALSE)</f>
+        <v>Ring of Smile</v>
+      </c>
+      <c r="G649" s="11">
+        <f>VLOOKUP(テーブル1[[#This Row],[曲名]],テーブル13[[title]:[id逆引き]],2,FALSE)</f>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="650" spans="1:7">
+      <c r="A650" s="6">
+        <f t="shared" si="12"/>
+        <v>649</v>
+      </c>
+      <c r="B650" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C650" s="9">
+        <v>41</v>
+      </c>
+      <c r="D650" s="2">
+        <v>80</v>
+      </c>
+      <c r="E650" s="11" t="str">
+        <f>VLOOKUP(テーブル1[[#This Row],[venueId]],テーブル134[],2,FALSE)</f>
+        <v>兵庫</v>
+      </c>
+      <c r="F650" s="12" t="str">
+        <f>VLOOKUP(テーブル1[[#This Row],[songId]],テーブル13[],2,FALSE)</f>
+        <v>ほしとね、</v>
+      </c>
+      <c r="G650" s="11">
+        <f>VLOOKUP(テーブル1[[#This Row],[曲名]],テーブル13[[title]:[id逆引き]],2,FALSE)</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="651" spans="1:7">
+      <c r="A651" s="6">
+        <f t="shared" si="12"/>
+        <v>650</v>
+      </c>
+      <c r="B651" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C651" s="9">
+        <v>41</v>
+      </c>
+      <c r="D651" s="2">
+        <v>79</v>
+      </c>
+      <c r="E651" s="11" t="str">
+        <f>VLOOKUP(テーブル1[[#This Row],[venueId]],テーブル134[],2,FALSE)</f>
+        <v>兵庫</v>
+      </c>
+      <c r="F651" s="12" t="str">
+        <f>VLOOKUP(テーブル1[[#This Row],[songId]],テーブル13[],2,FALSE)</f>
+        <v>フラーグム</v>
+      </c>
+      <c r="G651" s="11">
+        <f>VLOOKUP(テーブル1[[#This Row],[曲名]],テーブル13[[title]:[id逆引き]],2,FALSE)</f>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="652" spans="1:7">
+      <c r="A652" s="6">
+        <f t="shared" si="12"/>
+        <v>651</v>
+      </c>
+      <c r="B652" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C652" s="9">
+        <v>41</v>
+      </c>
+      <c r="D652" s="2">
+        <v>41</v>
+      </c>
+      <c r="E652" s="11" t="str">
+        <f>VLOOKUP(テーブル1[[#This Row],[venueId]],テーブル134[],2,FALSE)</f>
+        <v>兵庫</v>
+      </c>
+      <c r="F652" s="12" t="str">
+        <f>VLOOKUP(テーブル1[[#This Row],[songId]],テーブル13[],2,FALSE)</f>
+        <v>ソライロ</v>
+      </c>
+      <c r="G652" s="11">
+        <f>VLOOKUP(テーブル1[[#This Row],[曲名]],テーブル13[[title]:[id逆引き]],2,FALSE)</f>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="653" spans="1:7">
+      <c r="A653" s="6">
+        <f t="shared" si="12"/>
+        <v>652</v>
+      </c>
+      <c r="B653" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C653" s="9">
+        <v>41</v>
+      </c>
+      <c r="D653" s="2">
+        <v>21</v>
+      </c>
+      <c r="E653" s="11" t="str">
+        <f>VLOOKUP(テーブル1[[#This Row],[venueId]],テーブル134[],2,FALSE)</f>
+        <v>兵庫</v>
+      </c>
+      <c r="F653" s="12" t="str">
+        <f>VLOOKUP(テーブル1[[#This Row],[songId]],テーブル13[],2,FALSE)</f>
+        <v>Kitty Cat Adventure</v>
+      </c>
+      <c r="G653" s="11">
+        <f>VLOOKUP(テーブル1[[#This Row],[曲名]],テーブル13[[title]:[id逆引き]],2,FALSE)</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="654" spans="1:7">
+      <c r="A654" s="6">
+        <f t="shared" si="12"/>
+        <v>653</v>
+      </c>
+      <c r="B654" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C654" s="9">
+        <v>41</v>
+      </c>
+      <c r="D654" s="2">
+        <v>81</v>
+      </c>
+      <c r="E654" s="11" t="str">
+        <f>VLOOKUP(テーブル1[[#This Row],[venueId]],テーブル134[],2,FALSE)</f>
+        <v>兵庫</v>
+      </c>
+      <c r="F654" s="12" t="str">
+        <f>VLOOKUP(テーブル1[[#This Row],[songId]],テーブル13[],2,FALSE)</f>
+        <v>グラデーション</v>
+      </c>
+      <c r="G654" s="11">
+        <f>VLOOKUP(テーブル1[[#This Row],[曲名]],テーブル13[[title]:[id逆引き]],2,FALSE)</f>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="655" spans="1:7">
+      <c r="A655" s="6">
+        <f t="shared" si="12"/>
+        <v>654</v>
+      </c>
+      <c r="B655" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C655" s="9">
+        <v>41</v>
+      </c>
+      <c r="D655" s="2">
+        <v>46</v>
+      </c>
+      <c r="E655" s="11" t="str">
+        <f>VLOOKUP(テーブル1[[#This Row],[venueId]],テーブル134[],2,FALSE)</f>
+        <v>兵庫</v>
+      </c>
+      <c r="F655" s="12" t="str">
+        <f>VLOOKUP(テーブル1[[#This Row],[songId]],テーブル13[],2,FALSE)</f>
+        <v>夏夢</v>
+      </c>
+      <c r="G655" s="11">
+        <f>VLOOKUP(テーブル1[[#This Row],[曲名]],テーブル13[[title]:[id逆引き]],2,FALSE)</f>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="656" spans="1:7">
+      <c r="A656" s="6">
+        <f t="shared" si="12"/>
+        <v>655</v>
+      </c>
+      <c r="B656" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C656" s="9">
+        <v>41</v>
+      </c>
+      <c r="D656" s="2">
+        <v>3</v>
+      </c>
+      <c r="E656" s="11" t="str">
+        <f>VLOOKUP(テーブル1[[#This Row],[venueId]],テーブル134[],2,FALSE)</f>
+        <v>兵庫</v>
+      </c>
+      <c r="F656" s="12" t="str">
+        <f>VLOOKUP(テーブル1[[#This Row],[songId]],テーブル13[],2,FALSE)</f>
+        <v>スクラップアート</v>
+      </c>
+      <c r="G656" s="11">
+        <f>VLOOKUP(テーブル1[[#This Row],[曲名]],テーブル13[[title]:[id逆引き]],2,FALSE)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="657" spans="1:7">
+      <c r="A657" s="6">
+        <f t="shared" si="12"/>
+        <v>656</v>
+      </c>
+      <c r="B657" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C657" s="9">
+        <v>41</v>
+      </c>
+      <c r="D657" s="2">
+        <v>4</v>
+      </c>
+      <c r="E657" s="11" t="str">
+        <f>VLOOKUP(テーブル1[[#This Row],[venueId]],テーブル134[],2,FALSE)</f>
+        <v>兵庫</v>
+      </c>
+      <c r="F657" s="12" t="str">
+        <f>VLOOKUP(テーブル1[[#This Row],[songId]],テーブル13[],2,FALSE)</f>
+        <v>アイオライト</v>
+      </c>
+      <c r="G657" s="11">
+        <f>VLOOKUP(テーブル1[[#This Row],[曲名]],テーブル13[[title]:[id逆引き]],2,FALSE)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="658" spans="1:7">
+      <c r="A658" s="6">
+        <f t="shared" si="12"/>
+        <v>657</v>
+      </c>
+      <c r="B658" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C658" s="9">
+        <v>41</v>
+      </c>
+      <c r="D658" s="2">
+        <v>48</v>
+      </c>
+      <c r="E658" s="11" t="str">
+        <f>VLOOKUP(テーブル1[[#This Row],[venueId]],テーブル134[],2,FALSE)</f>
+        <v>兵庫</v>
+      </c>
+      <c r="F658" s="12" t="str">
+        <f>VLOOKUP(テーブル1[[#This Row],[songId]],テーブル13[],2,FALSE)</f>
+        <v>八月のスーベニア</v>
+      </c>
+      <c r="G658" s="11">
+        <f>VLOOKUP(テーブル1[[#This Row],[曲名]],テーブル13[[title]:[id逆引き]],2,FALSE)</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="659" spans="1:7">
+      <c r="A659" s="6">
+        <f t="shared" si="12"/>
+        <v>658</v>
+      </c>
+      <c r="B659" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C659" s="9">
+        <v>41</v>
+      </c>
+      <c r="D659" s="2">
+        <v>59</v>
+      </c>
+      <c r="E659" s="11" t="str">
+        <f>VLOOKUP(テーブル1[[#This Row],[venueId]],テーブル134[],2,FALSE)</f>
+        <v>兵庫</v>
+      </c>
+      <c r="F659" s="12" t="str">
+        <f>VLOOKUP(テーブル1[[#This Row],[songId]],テーブル13[],2,FALSE)</f>
+        <v>星屑のコントレイル</v>
+      </c>
+      <c r="G659" s="11">
+        <f>VLOOKUP(テーブル1[[#This Row],[曲名]],テーブル13[[title]:[id逆引き]],2,FALSE)</f>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="660" spans="1:7">
+      <c r="A660" s="6">
+        <f t="shared" si="12"/>
+        <v>659</v>
+      </c>
+      <c r="B660" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C660" s="9">
+        <v>41</v>
+      </c>
+      <c r="D660" s="2">
+        <v>38</v>
+      </c>
+      <c r="E660" s="11" t="str">
+        <f>VLOOKUP(テーブル1[[#This Row],[venueId]],テーブル134[],2,FALSE)</f>
+        <v>兵庫</v>
+      </c>
+      <c r="F660" s="12" t="str">
+        <f>VLOOKUP(テーブル1[[#This Row],[songId]],テーブル13[],2,FALSE)</f>
+        <v>Starry Wish</v>
+      </c>
+      <c r="G660" s="11">
+        <f>VLOOKUP(テーブル1[[#This Row],[曲名]],テーブル13[[title]:[id逆引き]],2,FALSE)</f>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="661" spans="1:7">
+      <c r="A661" s="6">
+        <f t="shared" si="12"/>
+        <v>660</v>
+      </c>
+      <c r="B661" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C661" s="9">
+        <v>41</v>
+      </c>
+      <c r="D661" s="2">
+        <v>82</v>
+      </c>
+      <c r="E661" s="11" t="str">
+        <f>VLOOKUP(テーブル1[[#This Row],[venueId]],テーブル134[],2,FALSE)</f>
+        <v>兵庫</v>
+      </c>
+      <c r="F661" s="12" t="str">
+        <f>VLOOKUP(テーブル1[[#This Row],[songId]],テーブル13[],2,FALSE)</f>
+        <v>燈籠光柱</v>
+      </c>
+      <c r="G661" s="11">
+        <f>VLOOKUP(テーブル1[[#This Row],[曲名]],テーブル13[[title]:[id逆引き]],2,FALSE)</f>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="662" spans="1:7">
+      <c r="A662" s="6">
+        <f t="shared" si="12"/>
+        <v>661</v>
+      </c>
+      <c r="B662" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C662" s="9">
+        <v>41</v>
+      </c>
+      <c r="D662" s="2">
+        <v>62</v>
+      </c>
+      <c r="E662" s="11" t="str">
+        <f>VLOOKUP(テーブル1[[#This Row],[venueId]],テーブル134[],2,FALSE)</f>
+        <v>兵庫</v>
+      </c>
+      <c r="F662" s="12" t="str">
+        <f>VLOOKUP(テーブル1[[#This Row],[songId]],テーブル13[],2,FALSE)</f>
+        <v>My Graffiti</v>
+      </c>
+      <c r="G662" s="11">
+        <f>VLOOKUP(テーブル1[[#This Row],[曲名]],テーブル13[[title]:[id逆引き]],2,FALSE)</f>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="663" spans="1:7">
+      <c r="A663" s="6">
+        <f t="shared" si="12"/>
+        <v>662</v>
+      </c>
+      <c r="B663" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C663" s="9">
+        <v>41</v>
+      </c>
+      <c r="D663" s="2">
+        <v>26</v>
+      </c>
+      <c r="E663" s="11" t="str">
+        <f>VLOOKUP(テーブル1[[#This Row],[venueId]],テーブル134[],2,FALSE)</f>
+        <v>兵庫</v>
+      </c>
+      <c r="F663" s="12" t="str">
+        <f>VLOOKUP(テーブル1[[#This Row],[songId]],テーブル13[],2,FALSE)</f>
+        <v>glow</v>
+      </c>
+      <c r="G663" s="11">
+        <f>VLOOKUP(テーブル1[[#This Row],[曲名]],テーブル13[[title]:[id逆引き]],2,FALSE)</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="664" spans="1:7">
+      <c r="A664" s="6">
+        <f t="shared" si="12"/>
+        <v>663</v>
+      </c>
+      <c r="B664" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C664" s="9">
+        <v>41</v>
+      </c>
+      <c r="D664" s="2">
+        <v>78</v>
+      </c>
+      <c r="E664" s="11" t="str">
+        <f>VLOOKUP(テーブル1[[#This Row],[venueId]],テーブル134[],2,FALSE)</f>
+        <v>兵庫</v>
+      </c>
+      <c r="F664" s="12" t="str">
+        <f>VLOOKUP(テーブル1[[#This Row],[songId]],テーブル13[],2,FALSE)</f>
+        <v>heart bookmark</v>
+      </c>
+      <c r="G664" s="11">
+        <f>VLOOKUP(テーブル1[[#This Row],[曲名]],テーブル13[[title]:[id逆引き]],2,FALSE)</f>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="665" spans="1:7">
+      <c r="A665" s="6">
+        <f>ROW()-1</f>
+        <v>664</v>
+      </c>
+      <c r="B665" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C665" s="9">
+        <v>41</v>
+      </c>
+      <c r="D665" s="2">
+        <v>60</v>
+      </c>
+      <c r="E665" s="11" t="str">
+        <f>VLOOKUP(テーブル1[[#This Row],[venueId]],テーブル134[],2,FALSE)</f>
+        <v>兵庫</v>
+      </c>
+      <c r="F665" s="12" t="str">
+        <f>VLOOKUP(テーブル1[[#This Row],[songId]],テーブル13[],2,FALSE)</f>
+        <v>僕らだけの鼓動</v>
+      </c>
+      <c r="G665" s="11">
+        <f>VLOOKUP(テーブル1[[#This Row],[曲名]],テーブル13[[title]:[id逆引き]],2,FALSE)</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="666" spans="1:7">
+      <c r="A666" s="6">
+        <f t="shared" ref="A666:A667" si="13">ROW()-1</f>
+        <v>665</v>
+      </c>
+      <c r="B666" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C666" s="2">
+        <v>41</v>
+      </c>
+      <c r="D666" s="2">
+        <v>18</v>
+      </c>
+      <c r="E666" s="11" t="str">
+        <f>VLOOKUP(テーブル1[[#This Row],[venueId]],テーブル134[],2,FALSE)</f>
+        <v>兵庫</v>
+      </c>
+      <c r="F666" s="12" t="str">
+        <f>VLOOKUP(テーブル1[[#This Row],[songId]],テーブル13[],2,FALSE)</f>
+        <v>笑顔が似合う日</v>
+      </c>
+      <c r="G666" s="11">
+        <f>VLOOKUP(テーブル1[[#This Row],[曲名]],テーブル13[[title]:[id逆引き]],2,FALSE)</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="667" spans="1:7">
+      <c r="A667" s="6">
+        <f t="shared" si="13"/>
+        <v>666</v>
+      </c>
+      <c r="B667" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C667" s="2">
+        <v>41</v>
+      </c>
+      <c r="D667" s="2">
+        <v>65</v>
+      </c>
+      <c r="E667" s="11" t="str">
+        <f>VLOOKUP(テーブル1[[#This Row],[venueId]],テーブル134[],2,FALSE)</f>
+        <v>兵庫</v>
+      </c>
+      <c r="F667" s="12" t="str">
+        <f>VLOOKUP(テーブル1[[#This Row],[songId]],テーブル13[],2,FALSE)</f>
+        <v>MELODY FLAG</v>
+      </c>
+      <c r="G667" s="11">
+        <f>VLOOKUP(テーブル1[[#This Row],[曲名]],テーブル13[[title]:[id逆引き]],2,FALSE)</f>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -21210,7 +21750,7 @@
           <x14:formula1>
             <xm:f>song!$B$2:$B$78</xm:f>
           </x14:formula1>
-          <xm:sqref>F2:F647</xm:sqref>
+          <xm:sqref>F2:F667</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -21222,16 +21762,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{569F46C2-4F4B-44AC-BD6A-6A1921884503}">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="60.0546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="55.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="60.08203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="55.4140625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.08203125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="1"/>
+    <col min="6" max="16384" width="8.9140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
